--- a/日常/SQL脚本/结算/结算上线准备_20180605/结算维保期数据库变更-20180620.xlsx
+++ b/日常/SQL脚本/结算/结算上线准备_20180605/结算维保期数据库变更-20180620.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1668" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1143">
   <si>
     <t>返回目录</t>
   </si>
@@ -3238,27 +3238,7 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>VARCHAR2(4000)</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>√</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -5667,7 +5647,7 @@
         <v>505</v>
       </c>
       <c r="J32" s="166" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="K32" s="166"/>
       <c r="L32" s="166"/>
@@ -7377,7 +7357,7 @@
         <v>384</v>
       </c>
       <c r="C19" s="125" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D19" s="122"/>
       <c r="E19" s="134"/>
@@ -10023,19 +10003,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="C7" s="10">
         <v>43271</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -10251,10 +10231,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="66" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>1118</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -10274,10 +10254,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="28" t="s">
-        <v>1119</v>
+        <v>1114</v>
       </c>
       <c r="B6" s="135" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C6" s="136" t="s">
         <v>407</v>
@@ -10286,12 +10266,12 @@
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="88" t="s">
-        <v>1121</v>
+        <v>1116</v>
       </c>
       <c r="B7" s="88" t="s">
         <v>433</v>
@@ -10303,30 +10283,30 @@
         <v>10</v>
       </c>
       <c r="E7" s="136" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="88" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="B8" s="88" t="s">
-        <v>1123</v>
+        <v>1118</v>
       </c>
       <c r="C8" s="137" t="s">
         <v>407</v>
       </c>
       <c r="D8" s="88"/>
       <c r="E8" s="30" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="C9" s="88" t="s">
         <v>425</v>
@@ -10336,23 +10316,23 @@
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A10" s="88" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="B10" s="88" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="C10" s="88" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
     </row>
     <row r="11" spans="1:5" ht="28.5" x14ac:dyDescent="0.3">
       <c r="A11" s="88" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="B11" s="88" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="C11" s="88" t="s">
         <v>496</v>
@@ -10389,7 +10369,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -10406,7 +10386,7 @@
         <v>10</v>
       </c>
       <c r="E14" s="30" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -10414,13 +10394,13 @@
         <v>41</v>
       </c>
       <c r="B15" s="57" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="C15" s="57" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="D15" s="48" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E15" s="57"/>
     </row>
@@ -11160,14 +11140,14 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="27.25" style="16" customWidth="1"/>
-    <col min="4" max="4" width="42.875" style="16" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.625" style="16"/>
   </cols>
   <sheetData>
@@ -11185,10 +11165,10 @@
         <v>32</v>
       </c>
       <c r="F1" s="16" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>1106</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>1111</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -11200,13 +11180,10 @@
         <v>517</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>1110</v>
+        <v>1105</v>
       </c>
       <c r="D2" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>828</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>828</v>
@@ -11226,9 +11203,6 @@
       <c r="D3" s="18" t="s">
         <v>529</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>830</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
@@ -11239,13 +11213,10 @@
         <v>519</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>1112</v>
+        <v>1107</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>829</v>
       </c>
       <c r="G4" s="16" t="s">
         <v>828</v>
@@ -11260,7 +11231,7 @@
         <v>520</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>1109</v>
+        <v>1104</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>529</v>
@@ -11275,13 +11246,10 @@
         <v>521</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>1113</v>
+        <v>1108</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>834</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>828</v>
@@ -11296,13 +11264,10 @@
         <v>522</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>1114</v>
+        <v>1109</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>830</v>
       </c>
       <c r="G7" s="16" t="s">
         <v>828</v>
@@ -11317,13 +11282,10 @@
         <v>523</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>1108</v>
+        <v>1103</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>524</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -11335,13 +11297,10 @@
         <v>525</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>1115</v>
+        <v>1110</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>529</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>832</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>828</v>
@@ -11359,13 +11318,10 @@
         <v>526</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>1116</v>
+        <v>1111</v>
       </c>
       <c r="D10" s="18" t="s">
         <v>531</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>829</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>828</v>
@@ -11383,13 +11339,10 @@
         <v>528</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>1107</v>
+        <v>1102</v>
       </c>
       <c r="D11" s="18" t="s">
         <v>530</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>829</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>828</v>
@@ -11407,12 +11360,9 @@
         <v>798</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>1117</v>
+        <v>1112</v>
       </c>
       <c r="D12" s="18"/>
-      <c r="E12" s="16" t="s">
-        <v>833</v>
-      </c>
       <c r="F12" s="16" t="s">
         <v>828</v>
       </c>
@@ -11426,13 +11376,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="G13" s="16" t="s">
         <v>828</v>
@@ -11616,420 +11566,420 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B1" s="152" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C1" s="153" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B2" s="152" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B3" s="152" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="152" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="152" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
       <c r="C4" s="153" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B5" s="152" t="s">
-        <v>979</v>
+        <v>974</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B6" s="152" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="C6" s="153" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B7" s="152" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B9" s="152" t="s">
-        <v>983</v>
+        <v>978</v>
       </c>
       <c r="C9" s="153" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B10" s="152" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="C10" s="153" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B11" s="152" t="s">
-        <v>985</v>
+        <v>980</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B12" s="152" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B13" s="152" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B14" s="152" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B15" s="152" t="s">
-        <v>992</v>
+        <v>987</v>
       </c>
       <c r="C15" s="153" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B16" s="152" t="s">
-        <v>994</v>
+        <v>989</v>
       </c>
       <c r="C16" s="153" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B17" s="152" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="152" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="152" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="C18" s="153" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B19" s="152" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="C19" s="152" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B20" s="152" t="s">
-        <v>1001</v>
+        <v>996</v>
       </c>
       <c r="C20" s="152" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B21" s="152" t="s">
-        <v>1002</v>
+        <v>997</v>
       </c>
       <c r="C21" s="152" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B22" s="152" t="s">
-        <v>1003</v>
+        <v>998</v>
       </c>
       <c r="C22" s="152" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>1004</v>
+        <v>999</v>
       </c>
       <c r="C23" s="152" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B24" s="152" t="s">
-        <v>1005</v>
+        <v>1000</v>
       </c>
       <c r="C24" s="152" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B25" s="152" t="s">
-        <v>1006</v>
+        <v>1001</v>
       </c>
       <c r="C25" s="152" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="152" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B26" s="152" t="s">
-        <v>1007</v>
+        <v>1002</v>
       </c>
       <c r="C26" s="152" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B27" s="152" t="s">
-        <v>1008</v>
+        <v>1003</v>
       </c>
       <c r="C27" s="152" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="152" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="B28" s="152" t="s">
-        <v>1009</v>
+        <v>1004</v>
       </c>
       <c r="C28" s="152" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B29" s="152" t="s">
-        <v>1010</v>
+        <v>1005</v>
       </c>
       <c r="C29" s="152" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B30" s="152" t="s">
-        <v>1011</v>
+        <v>1006</v>
       </c>
       <c r="C30" s="152" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="152" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="B31" s="152" t="s">
-        <v>1012</v>
+        <v>1007</v>
       </c>
       <c r="C31" s="152" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B32" s="152" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C32" s="153" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B33" s="152" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C33" s="153" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B34" s="152" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C34" s="153" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B35" s="152" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C35" s="153" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B36" s="152" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C36" s="153" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B37" s="152" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C37" s="153" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="152" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="B38" s="152" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C38" s="153" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
   </sheetData>
@@ -12057,16 +12007,16 @@
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A1" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B1" s="153" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C1" s="153" t="s">
-        <v>1096</v>
+        <v>1091</v>
       </c>
       <c r="D1" s="152" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="E1" s="152" t="str">
         <f>A1&amp;B1&amp;C1&amp;D1</f>
@@ -12075,16 +12025,16 @@
     </row>
     <row r="2" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B2" s="153" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="C2" s="153" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D2" s="152" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="E2" s="152" t="str">
         <f t="shared" ref="E2:E39" si="0">A2&amp;B2&amp;C2&amp;D2</f>
@@ -12093,16 +12043,16 @@
     </row>
     <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="152" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B3" s="153" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="C3" s="153" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D3" s="152" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="E3" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12111,16 +12061,16 @@
     </row>
     <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B4" s="153" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="C4" s="153" t="s">
-        <v>1101</v>
+        <v>1096</v>
       </c>
       <c r="D4" s="152" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
       <c r="E4" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12129,16 +12079,16 @@
     </row>
     <row r="5" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B5" s="153" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="C5" s="153" t="s">
-        <v>1102</v>
+        <v>1097</v>
       </c>
       <c r="D5" s="152" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E5" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12147,16 +12097,16 @@
     </row>
     <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B6" s="153" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="C6" s="153" t="s">
-        <v>1103</v>
+        <v>1098</v>
       </c>
       <c r="D6" s="152" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="E6" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12165,16 +12115,16 @@
     </row>
     <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B7" s="153" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>1104</v>
+        <v>1099</v>
       </c>
       <c r="D7" s="152" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="E7" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12183,16 +12133,16 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B8" s="153" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="C8" s="153" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="152" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="E8" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12201,16 +12151,16 @@
     </row>
     <row r="9" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B9" s="153" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="C9" s="153" t="s">
-        <v>1066</v>
+        <v>1061</v>
       </c>
       <c r="D9" s="152" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="E9" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12219,16 +12169,16 @@
     </row>
     <row r="10" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B10" s="153" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="C10" s="153" t="s">
-        <v>1067</v>
+        <v>1062</v>
       </c>
       <c r="D10" s="152" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="E10" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12237,16 +12187,16 @@
     </row>
     <row r="11" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B11" s="153" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="C11" s="153" t="s">
-        <v>1068</v>
+        <v>1063</v>
       </c>
       <c r="D11" s="152" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="E11" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12255,16 +12205,16 @@
     </row>
     <row r="12" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="152" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B12" s="153" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="C12" s="153" t="s">
-        <v>1069</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="152" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="E12" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12273,16 +12223,16 @@
     </row>
     <row r="13" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B13" s="153" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="C13" s="153" t="s">
-        <v>1070</v>
+        <v>1065</v>
       </c>
       <c r="D13" s="152" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="E13" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12291,16 +12241,16 @@
     </row>
     <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="152" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B14" s="153" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="C14" s="153" t="s">
-        <v>1071</v>
+        <v>1066</v>
       </c>
       <c r="D14" s="152" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="E14" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12309,16 +12259,16 @@
     </row>
     <row r="15" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B15" s="153" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="C15" s="153" t="s">
-        <v>1072</v>
+        <v>1067</v>
       </c>
       <c r="D15" s="152" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="E15" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12327,16 +12277,16 @@
     </row>
     <row r="16" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="152" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B16" s="153" t="s">
-        <v>993</v>
+        <v>988</v>
       </c>
       <c r="C16" s="153" t="s">
-        <v>1073</v>
+        <v>1068</v>
       </c>
       <c r="D16" s="152" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="E16" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12345,16 +12295,16 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="152" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B17" s="153" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="C17" s="153" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="D17" s="152" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E17" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12363,13 +12313,13 @@
     </row>
     <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B18" s="153" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C18" s="153" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="D18" s="152" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="E18" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12378,16 +12328,16 @@
     </row>
     <row r="19" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="152" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B19" s="153" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="C19" s="153" t="s">
-        <v>1076</v>
+        <v>1071</v>
       </c>
       <c r="D19" s="152" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="E19" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12396,16 +12346,16 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B20" s="152" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="C20" s="153" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D20" s="152" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="E20" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12414,16 +12364,16 @@
     </row>
     <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="152" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B21" s="152" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="C21" s="153" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="D21" s="152" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="E21" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12432,16 +12382,16 @@
     </row>
     <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B22" s="152" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C22" s="153" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="D22" s="152" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="E22" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12450,16 +12400,16 @@
     </row>
     <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="152" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B23" s="152" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="C23" s="153" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D23" s="152" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="E23" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12468,16 +12418,16 @@
     </row>
     <row r="24" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="152" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B24" s="152" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="C24" s="153" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D24" s="152" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="E24" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12486,16 +12436,16 @@
     </row>
     <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B25" s="152" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="C25" s="153" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D25" s="152" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="E25" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12504,16 +12454,16 @@
     </row>
     <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B26" s="152" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="C26" s="153" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D26" s="152" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12522,16 +12472,16 @@
     </row>
     <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B27" s="152" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="C27" s="153" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D27" s="152" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="E27" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12540,16 +12490,16 @@
     </row>
     <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="152" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="B28" s="152" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="C28" s="153" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D28" s="152" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="E28" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12558,16 +12508,16 @@
     </row>
     <row r="29" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B29" s="152" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="C29" s="153" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D29" s="152" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="E29" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12576,16 +12526,16 @@
     </row>
     <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="152" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="B30" s="152" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="C30" s="153" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="D30" s="152" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="E30" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12594,16 +12544,16 @@
     </row>
     <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B31" s="152" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="C31" s="153" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D31" s="152" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="E31" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12612,16 +12562,16 @@
     </row>
     <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="152" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="B32" s="152" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="C32" s="153" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="D32" s="152" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="E32" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12630,16 +12580,16 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="152" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="B33" s="153" t="s">
-        <v>1013</v>
+        <v>1008</v>
       </c>
       <c r="C33" s="153" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D33" s="152" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="E33" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12648,16 +12598,16 @@
     </row>
     <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B34" s="153" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="C34" s="153" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="D34" s="152" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="E34" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12666,16 +12616,16 @@
     </row>
     <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B35" s="153" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="C35" s="153" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D35" s="152" t="s">
-        <v>1061</v>
+        <v>1056</v>
       </c>
       <c r="E35" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12684,16 +12634,16 @@
     </row>
     <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="152" t="s">
-        <v>986</v>
+        <v>981</v>
       </c>
       <c r="B36" s="153" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="C36" s="153" t="s">
-        <v>1093</v>
+        <v>1088</v>
       </c>
       <c r="D36" s="152" t="s">
-        <v>1062</v>
+        <v>1057</v>
       </c>
       <c r="E36" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12702,16 +12652,16 @@
     </row>
     <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B37" s="153" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="C37" s="153" t="s">
-        <v>1094</v>
+        <v>1089</v>
       </c>
       <c r="D37" s="152" t="s">
-        <v>1063</v>
+        <v>1058</v>
       </c>
       <c r="E37" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12720,16 +12670,16 @@
     </row>
     <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B38" s="153" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C38" s="153" t="s">
-        <v>1095</v>
+        <v>1090</v>
       </c>
       <c r="D38" s="152" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="E38" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12738,16 +12688,16 @@
     </row>
     <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="152" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="B39" s="153" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C39" s="153" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D39" s="152" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="E39" s="152" t="str">
         <f t="shared" si="0"/>
@@ -12786,30 +12736,30 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="151" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B1" s="151" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="C1" s="151" t="s">
-        <v>929</v>
+        <v>924</v>
       </c>
       <c r="D1" s="151"/>
       <c r="E1" s="151" t="s">
-        <v>930</v>
+        <v>925</v>
       </c>
       <c r="F1" s="151"/>
       <c r="G1" s="151" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="H1" s="151" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="I1" s="151" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J1" s="151" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -12817,29 +12767,29 @@
         <v>509</v>
       </c>
       <c r="B2" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C2" s="151" t="s">
-        <v>935</v>
+        <v>930</v>
       </c>
       <c r="D2" s="151" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E2" s="154" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="F2" s="154" t="s">
-        <v>918</v>
+        <v>913</v>
       </c>
       <c r="G2" s="151" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="H2" s="151" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="I2" s="151"/>
       <c r="J2" s="151" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -12847,29 +12797,29 @@
         <v>403</v>
       </c>
       <c r="B3" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C3" s="151" t="s">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="D3" s="151" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="E3" s="154" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F3" s="154" t="s">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="G3" s="151" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="H3" s="151" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="I3" s="151"/>
       <c r="J3" s="151" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -12877,28 +12827,28 @@
         <v>510</v>
       </c>
       <c r="B4" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C4" s="151" t="s">
-        <v>938</v>
+        <v>933</v>
       </c>
       <c r="D4" s="151" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="E4" s="154" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="F4" s="154" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="G4" s="151" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="H4" s="151" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="I4" s="151" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J4" s="151"/>
     </row>
@@ -12907,25 +12857,25 @@
         <v>511</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C5" s="151" t="s">
+        <v>953</v>
+      </c>
+      <c r="D5" s="151" t="s">
+        <v>954</v>
+      </c>
+      <c r="E5" s="154" t="s">
+        <v>920</v>
+      </c>
+      <c r="F5" s="155" t="s">
         <v>958</v>
       </c>
-      <c r="D5" s="151" t="s">
-        <v>959</v>
-      </c>
-      <c r="E5" s="154" t="s">
-        <v>925</v>
-      </c>
-      <c r="F5" s="155" t="s">
-        <v>963</v>
-      </c>
       <c r="G5" s="151" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="H5" s="151" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="I5" s="151"/>
       <c r="J5" s="151"/>
@@ -12935,25 +12885,25 @@
         <v>512</v>
       </c>
       <c r="B6" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C6" s="151" t="s">
-        <v>934</v>
+        <v>929</v>
       </c>
       <c r="D6" s="151" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="E6" s="154" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="F6" s="155" t="s">
-        <v>928</v>
+        <v>923</v>
       </c>
       <c r="G6" s="151" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
       <c r="H6" s="151" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="I6" s="151"/>
       <c r="J6" s="151"/>
@@ -12963,25 +12913,25 @@
         <v>513</v>
       </c>
       <c r="B7" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C7" s="151" t="s">
-        <v>933</v>
+        <v>928</v>
       </c>
       <c r="D7" s="151" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="E7" s="154" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="F7" s="154" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="G7" s="151" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="H7" s="151" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="I7" s="151"/>
       <c r="J7" s="151"/>
@@ -12991,23 +12941,23 @@
         <v>814</v>
       </c>
       <c r="B8" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C8" s="151" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="D8" s="151"/>
       <c r="E8" s="151"/>
       <c r="F8" s="151"/>
       <c r="G8" s="151" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="H8" s="151"/>
       <c r="I8" s="151" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J8" s="151" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -13015,25 +12965,25 @@
         <v>514</v>
       </c>
       <c r="B9" s="151" t="s">
+        <v>832</v>
+      </c>
+      <c r="C9" s="151" t="s">
+        <v>927</v>
+      </c>
+      <c r="D9" s="151" t="s">
+        <v>948</v>
+      </c>
+      <c r="E9" s="154" t="s">
+        <v>899</v>
+      </c>
+      <c r="F9" s="154" t="s">
+        <v>911</v>
+      </c>
+      <c r="G9" s="151" t="s">
         <v>837</v>
       </c>
-      <c r="C9" s="151" t="s">
-        <v>932</v>
-      </c>
-      <c r="D9" s="151" t="s">
-        <v>953</v>
-      </c>
-      <c r="E9" s="154" t="s">
-        <v>904</v>
-      </c>
-      <c r="F9" s="154" t="s">
-        <v>916</v>
-      </c>
-      <c r="G9" s="151" t="s">
-        <v>842</v>
-      </c>
       <c r="H9" s="151" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="I9" s="151"/>
       <c r="J9" s="151"/>
@@ -13043,29 +12993,29 @@
         <v>527</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C10" s="151" t="s">
-        <v>937</v>
+        <v>932</v>
       </c>
       <c r="D10" s="151" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="E10" s="154" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="F10" s="154" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="G10" s="151" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="H10" s="151" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="I10" s="151"/>
       <c r="J10" s="151" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -13073,29 +13023,29 @@
         <v>515</v>
       </c>
       <c r="B11" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C11" s="151" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="D11" s="151" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E11" s="154" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="F11" s="154" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="G11" s="151" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="H11" s="151" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="I11" s="151"/>
       <c r="J11" s="151" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="33" x14ac:dyDescent="0.3">
@@ -13103,112 +13053,112 @@
         <v>799</v>
       </c>
       <c r="B12" s="151" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="C12" s="151" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="D12" s="151" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="E12" s="154" t="s">
-        <v>922</v>
+        <v>917</v>
       </c>
       <c r="F12" s="155" t="s">
-        <v>960</v>
+        <v>955</v>
       </c>
       <c r="G12" s="151" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="H12" s="151" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="I12" s="151"/>
       <c r="J12" s="151"/>
     </row>
     <row r="13" spans="1:10" ht="33" x14ac:dyDescent="0.3">
       <c r="A13" s="151" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B13" s="151" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="C13" s="151" t="s">
-        <v>943</v>
+        <v>938</v>
       </c>
       <c r="D13" s="151"/>
       <c r="E13" s="154" t="s">
-        <v>926</v>
+        <v>921</v>
       </c>
       <c r="F13" s="156"/>
       <c r="G13" s="151"/>
       <c r="H13" s="151"/>
       <c r="I13" s="151" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J13" s="151"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="151" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="B14" s="151" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C14" s="151" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="D14" s="151"/>
       <c r="E14" s="155" t="s">
-        <v>923</v>
+        <v>918</v>
       </c>
       <c r="F14" s="151"/>
       <c r="G14" s="151"/>
       <c r="H14" s="151"/>
       <c r="I14" s="151"/>
       <c r="J14" s="151" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="151" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="C15" s="151" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D15" s="151"/>
       <c r="E15" s="155" t="s">
-        <v>924</v>
+        <v>919</v>
       </c>
       <c r="F15" s="151"/>
       <c r="G15" s="151"/>
       <c r="H15" s="151"/>
       <c r="I15" s="151"/>
       <c r="J15" s="151" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="151" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="C16" s="151" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="D16" s="151"/>
       <c r="E16" s="155" t="s">
-        <v>919</v>
+        <v>914</v>
       </c>
       <c r="F16" s="151"/>
       <c r="G16" s="151" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="H16" s="151"/>
       <c r="I16" s="151"/>
@@ -13216,21 +13166,21 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="151" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B17" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C17" s="151" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D17" s="151"/>
       <c r="E17" s="155" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="F17" s="151"/>
       <c r="G17" s="151" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="H17" s="151"/>
       <c r="I17" s="151"/>
@@ -13238,19 +13188,19 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="151" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="B18" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C18" s="151" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D18" s="151"/>
       <c r="E18" s="151"/>
       <c r="F18" s="151"/>
       <c r="G18" s="151" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="H18" s="151"/>
       <c r="I18" s="151"/>
@@ -13258,19 +13208,19 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="151" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="B19" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C19" s="151" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="D19" s="151"/>
       <c r="E19" s="151"/>
       <c r="F19" s="151"/>
       <c r="G19" s="151" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="H19" s="151"/>
       <c r="I19" s="151"/>
@@ -13278,21 +13228,21 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="151" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="B20" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C20" s="151" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D20" s="151"/>
       <c r="E20" s="155" t="s">
-        <v>920</v>
+        <v>915</v>
       </c>
       <c r="F20" s="151"/>
       <c r="G20" s="151" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="H20" s="151"/>
       <c r="I20" s="151"/>
@@ -13300,21 +13250,21 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="151" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="B21" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C21" s="151" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="D21" s="151"/>
       <c r="E21" s="155" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="F21" s="151"/>
       <c r="G21" s="151" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="H21" s="151"/>
       <c r="I21" s="151"/>
@@ -13322,21 +13272,21 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="151" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="B22" s="151" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="C22" s="151" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D22" s="151"/>
       <c r="E22" s="155" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="F22" s="151"/>
       <c r="G22" s="151" t="s">
-        <v>1097</v>
+        <v>1092</v>
       </c>
       <c r="H22" s="151"/>
       <c r="I22" s="151"/>
@@ -13344,21 +13294,21 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="151" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="B23" s="151" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="C23" s="151" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="D23" s="151"/>
       <c r="E23" s="155" t="s">
-        <v>921</v>
+        <v>916</v>
       </c>
       <c r="F23" s="151"/>
       <c r="G23" s="151" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="H23" s="151"/>
       <c r="I23" s="151"/>
